--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\Narendra Canada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{125C6C94-4518-4DF3-BB95-9FFEAAD6B185}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BB23A7-9146-419D-8567-4D5829C5CD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
   <si>
     <t>Concepts</t>
   </si>
@@ -55,9 +55,6 @@
     <t>coding standards,best practices,naming conventions</t>
   </si>
   <si>
-    <t>installation of java,intro about keywrods</t>
-  </si>
-  <si>
     <t>8:30pm-9:45pm</t>
   </si>
   <si>
@@ -74,6 +71,15 @@
   </si>
   <si>
     <t>https://www.javatpoint.com/javafx-how-to-install-java</t>
+  </si>
+  <si>
+    <t>Day-3</t>
+  </si>
+  <si>
+    <t>installation of java,intro about keywrods,compailaion,execution,</t>
+  </si>
+  <si>
+    <t>JDK,Jre,JVM,variables,datatypes</t>
   </si>
 </sst>
 </file>
@@ -534,7 +540,7 @@
   <dimension ref="A3:I166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -555,7 +561,7 @@
     </row>
     <row r="4" spans="4:9" ht="24" thickBot="1" x14ac:dyDescent="0.5">
       <c r="D4" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>1</v>
@@ -575,7 +581,7 @@
     </row>
     <row r="5" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D5" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E5" s="7">
         <v>45229</v>
@@ -595,29 +601,37 @@
     </row>
     <row r="6" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D6" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E6" s="8">
         <v>45232</v>
       </c>
       <c r="F6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="9" t="s">
-        <v>10</v>
-      </c>
       <c r="H6" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D7" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="11" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D7" s="8"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
+      <c r="E7" s="7">
+        <v>45236</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="H7" s="10"/>
       <c r="I7" s="10"/>
     </row>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\Narendra Canada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BB23A7-9146-419D-8567-4D5829C5CD27}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B2C88F-58ED-4898-B967-561B3902A2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Concepts</t>
   </si>
@@ -80,6 +80,18 @@
   </si>
   <si>
     <t>JDK,Jre,JVM,variables,datatypes</t>
+  </si>
+  <si>
+    <t>Day-4</t>
+  </si>
+  <si>
+    <t>Variables,conditional statements,methods</t>
+  </si>
+  <si>
+    <t>8:45pm-9:45pm</t>
+  </si>
+  <si>
+    <t>complete variables assignment</t>
   </si>
 </sst>
 </file>
@@ -540,7 +552,7 @@
   <dimension ref="A3:I166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -636,11 +648,21 @@
       <c r="I7" s="10"/>
     </row>
     <row r="8" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
+      <c r="D8" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="7">
+        <v>45237</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="I8" s="10"/>
     </row>
     <row r="9" spans="4:9" x14ac:dyDescent="0.3">

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\Narendra Canada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7B2C88F-58ED-4898-B967-561B3902A2C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2454FEF-B2D5-4E5A-AC73-C98FF59CEC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t>Concepts</t>
   </si>
@@ -85,13 +85,28 @@
     <t>Day-4</t>
   </si>
   <si>
-    <t>Variables,conditional statements,methods</t>
-  </si>
-  <si>
     <t>8:45pm-9:45pm</t>
   </si>
   <si>
     <t>complete variables assignment</t>
+  </si>
+  <si>
+    <t>Day-5</t>
+  </si>
+  <si>
+    <t>Variables,instance,static,loca,global</t>
+  </si>
+  <si>
+    <t>Day-6</t>
+  </si>
+  <si>
+    <t>package,import,Eclipse</t>
+  </si>
+  <si>
+    <t>eclipse usage ,methods</t>
+  </si>
+  <si>
+    <t>revise the variables and methods instance and  static</t>
   </si>
 </sst>
 </file>
@@ -551,8 +566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:I166"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -655,30 +670,48 @@
         <v>45237</v>
       </c>
       <c r="F8" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="G8" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="10" t="s">
+      <c r="H8" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="H8" s="10" t="s">
+      <c r="I8" s="10"/>
+    </row>
+    <row r="9" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D9" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="I8" s="10"/>
-    </row>
-    <row r="9" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
+      <c r="E9" s="7">
+        <v>45238</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="H9" s="10"/>
       <c r="I9" s="10"/>
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
+      <c r="D10" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="7">
+        <v>45239</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>26</v>
+      </c>
       <c r="I10" s="10"/>
     </row>
     <row r="11" spans="4:9" x14ac:dyDescent="0.3">

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\Narendra Canada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2454FEF-B2D5-4E5A-AC73-C98FF59CEC65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36339024-90A7-4B4C-9C40-4DEA46593F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
   <si>
     <t>Concepts</t>
   </si>
@@ -94,9 +94,6 @@
     <t>Day-5</t>
   </si>
   <si>
-    <t>Variables,instance,static,loca,global</t>
-  </si>
-  <si>
     <t>Day-6</t>
   </si>
   <si>
@@ -107,6 +104,24 @@
   </si>
   <si>
     <t>revise the variables and methods instance and  static</t>
+  </si>
+  <si>
+    <t>Day-7</t>
+  </si>
+  <si>
+    <t>Variables,instance,static,local  and global</t>
+  </si>
+  <si>
+    <t>Flow control</t>
+  </si>
+  <si>
+    <t>Day-8</t>
+  </si>
+  <si>
+    <t>8:30pm-9:46pm</t>
+  </si>
+  <si>
+    <t>complete all the assignments</t>
   </si>
 </sst>
 </file>
@@ -567,7 +582,7 @@
   <dimension ref="A3:I166"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -670,7 +685,7 @@
         <v>45237</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>19</v>
@@ -688,7 +703,7 @@
         <v>45238</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G9" s="9" t="s">
         <v>7</v>
@@ -698,36 +713,54 @@
     </row>
     <row r="10" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D10" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E10" s="7">
         <v>45239</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" s="9" t="s">
         <v>7</v>
       </c>
       <c r="H10" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="I10" s="10"/>
+    </row>
+    <row r="11" spans="4:9" x14ac:dyDescent="0.3">
+      <c r="D11" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="I10" s="10"/>
-    </row>
-    <row r="11" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
+      <c r="E11" s="8">
+        <v>45245</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="H11" s="10"/>
       <c r="I11" s="10"/>
     </row>
     <row r="12" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
+      <c r="D12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E12" s="8">
+        <v>45251</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>31</v>
+      </c>
       <c r="I12" s="10"/>
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.3">

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\Narendra Canada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36339024-90A7-4B4C-9C40-4DEA46593F31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6133CEF2-371B-4295-B914-E296E878E180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
   <si>
     <t>Concepts</t>
   </si>
@@ -122,6 +122,24 @@
   </si>
   <si>
     <t>complete all the assignments</t>
+  </si>
+  <si>
+    <t>Day-9</t>
+  </si>
+  <si>
+    <t>http://www.maamu.itgo.com/other/javaquiz1.htm</t>
+  </si>
+  <si>
+    <t>https://www.geeksforgeeks.org/operators-in-java/</t>
+  </si>
+  <si>
+    <t>complete operators</t>
+  </si>
+  <si>
+    <t>8:30pm-10:08pm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Operators,arrays </t>
   </si>
 </sst>
 </file>
@@ -266,7 +284,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -296,6 +314,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -581,8 +602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:I166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -761,15 +782,29 @@
       <c r="H12" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="I12" s="10"/>
+      <c r="I12" s="15" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="13" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
+      <c r="D13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" s="8">
+        <v>45252</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="15" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D14" s="8"/>
@@ -1999,9 +2034,11 @@
   <hyperlinks>
     <hyperlink ref="I6" r:id="rId1" xr:uid="{418C169E-F84C-4B0E-89D2-ABC951CE4240}"/>
     <hyperlink ref="H6" r:id="rId2" xr:uid="{6C0E33A1-7F43-4661-967C-5B8094806C14}"/>
+    <hyperlink ref="I12" r:id="rId3" xr:uid="{E40EBECC-343F-4497-A7A2-E44601A11C82}"/>
+    <hyperlink ref="I13" r:id="rId4" xr:uid="{4A361582-A3F1-489F-AB82-1C80BFE77836}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\Narendra Canada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6133CEF2-371B-4295-B914-E296E878E180}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5793747B-9814-40C9-B40A-4F599A45F415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="124519" calcOnSave="0"/>
+  <calcPr calcId="124519"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
   <si>
     <t>Concepts</t>
   </si>
@@ -140,6 +140,48 @@
   </si>
   <si>
     <t xml:space="preserve">Operators,arrays </t>
+  </si>
+  <si>
+    <t>Day-10</t>
+  </si>
+  <si>
+    <t>Scanner,wrapper classes ,OOPS Features</t>
+  </si>
+  <si>
+    <t>8:30pm-9:38pm</t>
+  </si>
+  <si>
+    <t>Day-11</t>
+  </si>
+  <si>
+    <t>JDK,JRE,JVM Architecutre</t>
+  </si>
+  <si>
+    <t>8:30pm-9:44pm</t>
+  </si>
+  <si>
+    <t>complete all assignments</t>
+  </si>
+  <si>
+    <t>Day-12</t>
+  </si>
+  <si>
+    <t>MCQ TEST</t>
+  </si>
+  <si>
+    <t>Day-13</t>
+  </si>
+  <si>
+    <t>Day-14</t>
+  </si>
+  <si>
+    <t>Day-15</t>
+  </si>
+  <si>
+    <t>discussion on assignments,String,Stringbuilder,StringBuffer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">all Done </t>
   </si>
 </sst>
 </file>
@@ -193,7 +235,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,6 +251,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -284,7 +332,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -317,6 +365,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -603,7 +654,7 @@
   <dimension ref="A3:I166"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -705,7 +756,7 @@
       <c r="E8" s="7">
         <v>45237</v>
       </c>
-      <c r="F8" s="10" t="s">
+      <c r="F8" s="16" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="10" t="s">
@@ -807,51 +858,93 @@
       </c>
     </row>
     <row r="14" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D14" s="8"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="13"/>
+      <c r="D14" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="8">
+        <v>45253</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>40</v>
+      </c>
       <c r="H14" s="10"/>
       <c r="I14" s="10"/>
     </row>
     <row r="15" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D15" s="8"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
+      <c r="D15" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" s="8">
+        <v>45254</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>44</v>
+      </c>
       <c r="I15" s="10"/>
     </row>
     <row r="16" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D16" s="8"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
+      <c r="D16" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="8">
+        <v>45258</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H16" s="10" t="s">
+        <v>51</v>
+      </c>
       <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D17" s="8"/>
-      <c r="E17" s="12"/>
+      <c r="D17" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" s="8">
+        <v>45259</v>
+      </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10"/>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D18" s="8"/>
-      <c r="E18" s="12"/>
+      <c r="D18" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="8">
+        <v>45260</v>
+      </c>
       <c r="F18" s="10"/>
       <c r="G18" s="13"/>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D19" s="8"/>
-      <c r="E19" s="12"/>
+      <c r="D19" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" s="8">
+        <v>45261</v>
+      </c>
       <c r="F19" s="10"/>
       <c r="G19" s="13"/>
-      <c r="H19" s="10"/>
+      <c r="H19" s="10" t="s">
+        <v>46</v>
+      </c>
       <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\Narendra Canada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5793747B-9814-40C9-B40A-4F599A45F415}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFC5676-A277-483F-A94D-2582AD78EEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>Concepts</t>
   </si>
@@ -182,6 +182,12 @@
   </si>
   <si>
     <t xml:space="preserve">all Done </t>
+  </si>
+  <si>
+    <t>String,StringBuffer,StringBuilder</t>
+  </si>
+  <si>
+    <t>OOPS</t>
   </si>
 </sst>
 </file>
@@ -654,7 +660,7 @@
   <dimension ref="A3:I166"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -916,8 +922,12 @@
       <c r="E17" s="8">
         <v>45259</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="10"/>
+      <c r="F17" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="H17" s="10"/>
       <c r="I17" s="10"/>
     </row>
@@ -928,8 +938,12 @@
       <c r="E18" s="8">
         <v>45260</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="13"/>
+      <c r="F18" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="H18" s="10"/>
       <c r="I18" s="10"/>
     </row>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\Narendra Canada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFC5676-A277-483F-A94D-2582AD78EEE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A847276-0C44-4F72-8652-71BAAF0C2E15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="58">
   <si>
     <t>Concepts</t>
   </si>
@@ -166,9 +166,6 @@
     <t>Day-12</t>
   </si>
   <si>
-    <t>MCQ TEST</t>
-  </si>
-  <si>
     <t>Day-13</t>
   </si>
   <si>
@@ -187,7 +184,22 @@
     <t>String,StringBuffer,StringBuilder</t>
   </si>
   <si>
-    <t>OOPS</t>
+    <t>OOPS,inheritance</t>
+  </si>
+  <si>
+    <t>MCQ TEST-1</t>
+  </si>
+  <si>
+    <t>Day-16</t>
+  </si>
+  <si>
+    <t>abstract methods,concrete methods,class,abstractclass,interface</t>
+  </si>
+  <si>
+    <t>9:00PM-10:00pm</t>
+  </si>
+  <si>
+    <t>MI with example,access modifiers</t>
   </si>
 </sst>
 </file>
@@ -660,7 +672,7 @@
   <dimension ref="A3:I166"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -668,7 +680,7 @@
     <col min="3" max="3" width="9.5546875" customWidth="1"/>
     <col min="4" max="4" width="7.5546875" customWidth="1"/>
     <col min="5" max="5" width="19" customWidth="1"/>
-    <col min="6" max="6" width="51.88671875" customWidth="1"/>
+    <col min="6" max="6" width="62.44140625" customWidth="1"/>
     <col min="7" max="7" width="17.5546875" customWidth="1"/>
     <col min="8" max="8" width="51.109375" customWidth="1"/>
     <col min="9" max="9" width="50.21875" customWidth="1"/>
@@ -905,25 +917,25 @@
         <v>45258</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G16" s="9" t="s">
         <v>7</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I16" s="10"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D17" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E17" s="8">
         <v>45259</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G17" s="9" t="s">
         <v>7</v>
@@ -933,13 +945,13 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D18" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E18" s="8">
         <v>45260</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G18" s="9" t="s">
         <v>7</v>
@@ -949,24 +961,34 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="D19" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E19" s="8">
         <v>45261</v>
       </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="10" t="s">
-        <v>46</v>
-      </c>
+      <c r="F19" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H19" s="10"/>
       <c r="I19" s="10"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="4"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="10"/>
+      <c r="D20" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E20" s="12">
+        <v>45266</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>56</v>
+      </c>
       <c r="H20" s="10"/>
       <c r="I20" s="10"/>
     </row>
@@ -983,7 +1005,9 @@
       <c r="E22" s="10"/>
       <c r="F22" s="10"/>
       <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
+      <c r="H22" s="10" t="s">
+        <v>53</v>
+      </c>
       <c r="I22" s="10"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\Narendra Canada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10FB4C16-B200-419E-8DB9-AAB0EE4A08FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEA1A9F-1510-4CC2-BDA8-B871967132A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="82">
   <si>
     <t>Concepts</t>
   </si>
@@ -266,6 +266,12 @@
   </si>
   <si>
     <t>Day-27</t>
+  </si>
+  <si>
+    <t>Day-28</t>
+  </si>
+  <si>
+    <t>Collections intro</t>
   </si>
 </sst>
 </file>
@@ -740,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:I166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C7" workbookViewId="0">
-      <selection activeCell="H30" sqref="H30"/>
+    <sheetView tabSelected="1" topLeftCell="C18" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31:G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1242,10 +1248,18 @@
       <c r="I31" s="10"/>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="D32" s="8"/>
-      <c r="E32" s="12"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="10"/>
+      <c r="D32" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" s="12">
+        <v>44929</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="H32" s="10"/>
       <c r="I32" s="10"/>
     </row>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\Narendra Canada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EEA1A9F-1510-4CC2-BDA8-B871967132A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70D8B01-FEA9-474E-AE0A-33D699F8C6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="85">
   <si>
     <t>Concepts</t>
   </si>
@@ -272,6 +272,15 @@
   </si>
   <si>
     <t>Collections intro</t>
+  </si>
+  <si>
+    <t>Day-29</t>
+  </si>
+  <si>
+    <t>collections</t>
+  </si>
+  <si>
+    <t>complete assignment on File IO</t>
   </si>
 </sst>
 </file>
@@ -747,7 +756,7 @@
   <dimension ref="A3:I166"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C18" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31:G32"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1260,14 +1269,24 @@
       <c r="G32" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H32" s="10"/>
+      <c r="H32" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="I32" s="10"/>
     </row>
     <row r="33" spans="4:9" x14ac:dyDescent="0.3">
-      <c r="D33" s="8"/>
-      <c r="E33" s="12"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="10"/>
+      <c r="D33" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="12">
+        <v>44930</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="H33" s="10"/>
       <c r="I33" s="10"/>
     </row>

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\Narendra Canada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C70D8B01-FEA9-474E-AE0A-33D699F8C6AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BFB7B1E-EE6C-4AEF-AA19-E2182A196C29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="86">
   <si>
     <t>Concepts</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>complete assignment on File IO</t>
+  </si>
+  <si>
+    <t>complete assignement</t>
   </si>
 </sst>
 </file>
@@ -756,7 +759,7 @@
   <dimension ref="A3:I166"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C18" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1287,7 +1290,9 @@
       <c r="G33" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="H33" s="10"/>
+      <c r="H33" s="10" t="s">
+        <v>85</v>
+      </c>
       <c r="I33" s="10"/>
     </row>
     <row r="34" spans="4:9" x14ac:dyDescent="0.3">

--- a/Updates.xlsx
+++ b/Updates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Java Full Stack\JAVA\CORE\Narendra Canada\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB088FB8-6A3F-497E-90D8-E08DA4DE788E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA3D6DD8-F7EB-41CA-97A5-8C85010E3148}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="103">
   <si>
     <t>Concepts</t>
   </si>
@@ -302,6 +302,39 @@
   </si>
   <si>
     <t>Day-32</t>
+  </si>
+  <si>
+    <t>Bank App Case Study</t>
+  </si>
+  <si>
+    <t>Bank App Case Study layered</t>
+  </si>
+  <si>
+    <t>Doubts clarification</t>
+  </si>
+  <si>
+    <t>Bank App Case Study layered with exception handling</t>
+  </si>
+  <si>
+    <t>case study assigned</t>
+  </si>
+  <si>
+    <t>Not Available</t>
+  </si>
+  <si>
+    <t>Product Management Review</t>
+  </si>
+  <si>
+    <t>Multi Threading</t>
+  </si>
+  <si>
+    <t>Multi Threading(Inter Thread Communication),Java8 features</t>
+  </si>
+  <si>
+    <t>default static methods,functional Interface</t>
+  </si>
+  <si>
+    <t>Predefined FI,:: operator,Date API,Stream API</t>
   </si>
 </sst>
 </file>
@@ -776,8 +809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:I166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="F32" sqref="F32:F36"/>
+    <sheetView tabSelected="1" topLeftCell="E31" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1363,113 +1396,199 @@
     </row>
     <row r="37" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D37" s="8"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="10"/>
-      <c r="G37" s="10"/>
+      <c r="E37" s="12">
+        <v>45303</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="H37" s="10"/>
       <c r="I37" s="10"/>
     </row>
     <row r="38" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D38" s="8"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="10"/>
-      <c r="G38" s="10"/>
+      <c r="E38" s="12">
+        <v>45313</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="H38" s="10"/>
       <c r="I38" s="10"/>
     </row>
     <row r="39" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D39" s="8"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="10"/>
-      <c r="G39" s="10"/>
+      <c r="E39" s="12">
+        <v>45314</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="H39" s="10"/>
       <c r="I39" s="10"/>
     </row>
     <row r="40" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D40" s="8"/>
-      <c r="E40" s="12"/>
-      <c r="F40" s="10"/>
-      <c r="G40" s="10"/>
+      <c r="E40" s="12">
+        <v>45315</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="H40" s="10"/>
       <c r="I40" s="10"/>
     </row>
     <row r="41" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D41" s="8"/>
-      <c r="E41" s="12"/>
-      <c r="F41" s="10"/>
-      <c r="G41" s="10"/>
-      <c r="H41" s="10"/>
+      <c r="E41" s="12">
+        <v>45316</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>96</v>
+      </c>
       <c r="I41" s="10"/>
     </row>
     <row r="42" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D42" s="8"/>
-      <c r="E42" s="12"/>
-      <c r="F42" s="10"/>
-      <c r="G42" s="10"/>
+      <c r="E42" s="12">
+        <v>45317</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="H42" s="10"/>
       <c r="I42" s="10"/>
     </row>
     <row r="43" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D43" s="8"/>
-      <c r="E43" s="12"/>
-      <c r="F43" s="10"/>
-      <c r="G43" s="10"/>
+      <c r="E43" s="12">
+        <v>45320</v>
+      </c>
+      <c r="F43" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="H43" s="10"/>
       <c r="I43" s="10"/>
     </row>
     <row r="44" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D44" s="8"/>
-      <c r="E44" s="12"/>
-      <c r="F44" s="10"/>
-      <c r="G44" s="10"/>
+      <c r="E44" s="12">
+        <v>45321</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="H44" s="10"/>
       <c r="I44" s="10"/>
     </row>
     <row r="45" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D45" s="8"/>
-      <c r="E45" s="12"/>
-      <c r="F45" s="10"/>
-      <c r="G45" s="10"/>
+      <c r="E45" s="12">
+        <v>45322</v>
+      </c>
+      <c r="F45" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="H45" s="10"/>
       <c r="I45" s="10"/>
     </row>
     <row r="46" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D46" s="8"/>
-      <c r="E46" s="12"/>
-      <c r="F46" s="10"/>
-      <c r="G46" s="10"/>
+      <c r="E46" s="12">
+        <v>45323</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="H46" s="10"/>
       <c r="I46" s="10"/>
     </row>
     <row r="47" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D47" s="8"/>
-      <c r="E47" s="12"/>
-      <c r="F47" s="10"/>
-      <c r="G47" s="10"/>
+      <c r="E47" s="12">
+        <v>45324</v>
+      </c>
+      <c r="F47" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="H47" s="10"/>
       <c r="I47" s="10"/>
     </row>
     <row r="48" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D48" s="8"/>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="G48" s="10"/>
+      <c r="E48" s="12">
+        <v>45327</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="H48" s="10"/>
       <c r="I48" s="10"/>
     </row>
     <row r="49" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D49" s="8"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
+      <c r="E49" s="12">
+        <v>45328</v>
+      </c>
+      <c r="F49" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="H49" s="10"/>
       <c r="I49" s="10"/>
     </row>
     <row r="50" spans="4:9" x14ac:dyDescent="0.3">
       <c r="D50" s="8"/>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="G50" s="10"/>
+      <c r="E50" s="12">
+        <v>45329</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G50" s="9" t="s">
+        <v>7</v>
+      </c>
       <c r="H50" s="10"/>
       <c r="I50" s="10"/>
     </row>
